--- a/UserCount.xlsx
+++ b/UserCount.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spio02503\Desktop\BNext\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spio02503\Desktop\BNext - Maybank\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,15 +348,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,6 +1999,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B206">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B207">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B208">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B209">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B210">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
